--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2606661834339</v>
+        <v>10.359913</v>
       </c>
       <c r="H2">
-        <v>10.2606661834339</v>
+        <v>31.079739</v>
       </c>
       <c r="I2">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="J2">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N2">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P2">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q2">
-        <v>303.7487476384701</v>
+        <v>325.7783767266933</v>
       </c>
       <c r="R2">
-        <v>303.7487476384701</v>
+        <v>2932.00539054024</v>
       </c>
       <c r="S2">
-        <v>0.06987698071456072</v>
+        <v>0.06829861424056521</v>
       </c>
       <c r="T2">
-        <v>0.06987698071456072</v>
+        <v>0.06829861424056521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2606661834339</v>
+        <v>10.359913</v>
       </c>
       <c r="H3">
-        <v>10.2606661834339</v>
+        <v>31.079739</v>
       </c>
       <c r="I3">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="J3">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P3">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q3">
-        <v>589.912680506814</v>
+        <v>598.8096051976243</v>
       </c>
       <c r="R3">
-        <v>589.912680506814</v>
+        <v>5389.286446778618</v>
       </c>
       <c r="S3">
-        <v>0.1357085990297223</v>
+        <v>0.1255389220115377</v>
       </c>
       <c r="T3">
-        <v>0.1357085990297223</v>
+        <v>0.1255389220115377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.2606661834339</v>
+        <v>10.359913</v>
       </c>
       <c r="H4">
-        <v>10.2606661834339</v>
+        <v>31.079739</v>
       </c>
       <c r="I4">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="J4">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N4">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P4">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q4">
-        <v>120.0078391528215</v>
+        <v>124.7531054207867</v>
       </c>
       <c r="R4">
-        <v>120.0078391528215</v>
+        <v>1122.77794878708</v>
       </c>
       <c r="S4">
-        <v>0.02760763798130552</v>
+        <v>0.02615417360739993</v>
       </c>
       <c r="T4">
-        <v>0.02760763798130552</v>
+        <v>0.02615417360739993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.2606661834339</v>
+        <v>10.359913</v>
       </c>
       <c r="H5">
-        <v>10.2606661834339</v>
+        <v>31.079739</v>
       </c>
       <c r="I5">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="J5">
-        <v>0.2588124925292561</v>
+        <v>0.2499874361758538</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N5">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O5">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P5">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q5">
-        <v>111.3646090235016</v>
+        <v>143.0769736214506</v>
       </c>
       <c r="R5">
-        <v>111.3646090235016</v>
+        <v>1287.692762593056</v>
       </c>
       <c r="S5">
-        <v>0.0256192748036675</v>
+        <v>0.02999572631635099</v>
       </c>
       <c r="T5">
-        <v>0.0256192748036675</v>
+        <v>0.02999572631635099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.8219376471812</v>
+        <v>12.857753</v>
       </c>
       <c r="H6">
-        <v>12.8219376471812</v>
+        <v>38.57325899999999</v>
       </c>
       <c r="I6">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="J6">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N6">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O6">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P6">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q6">
-        <v>379.5706275795081</v>
+        <v>404.3255865848266</v>
       </c>
       <c r="R6">
-        <v>379.5706275795081</v>
+        <v>3638.930279263439</v>
       </c>
       <c r="S6">
-        <v>0.08731969968401543</v>
+        <v>0.08476583849183579</v>
       </c>
       <c r="T6">
-        <v>0.08731969968401543</v>
+        <v>0.08476583849183579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.8219376471812</v>
+        <v>12.857753</v>
       </c>
       <c r="H7">
-        <v>12.8219376471812</v>
+        <v>38.57325899999999</v>
       </c>
       <c r="I7">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="J7">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P7">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q7">
-        <v>737.1669121203723</v>
+        <v>743.1863566478374</v>
       </c>
       <c r="R7">
-        <v>737.1669121203723</v>
+        <v>6688.677209830537</v>
       </c>
       <c r="S7">
-        <v>0.1695842320408751</v>
+        <v>0.155807143468349</v>
       </c>
       <c r="T7">
-        <v>0.1695842320408751</v>
+        <v>0.1558071434683491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8219376471812</v>
+        <v>12.857753</v>
       </c>
       <c r="H8">
-        <v>12.8219376471812</v>
+        <v>38.57325899999999</v>
       </c>
       <c r="I8">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="J8">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N8">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O8">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P8">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q8">
-        <v>149.9642424070623</v>
+        <v>154.8318615690533</v>
       </c>
       <c r="R8">
-        <v>149.9642424070623</v>
+        <v>1393.48675412148</v>
       </c>
       <c r="S8">
-        <v>0.03449906725878734</v>
+        <v>0.03246010889889396</v>
       </c>
       <c r="T8">
-        <v>0.03449906725878734</v>
+        <v>0.03246010889889396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8219376471812</v>
+        <v>12.857753</v>
       </c>
       <c r="H9">
-        <v>12.8219376471812</v>
+        <v>38.57325899999999</v>
       </c>
       <c r="I9">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="J9">
-        <v>0.3234173670788975</v>
+        <v>0.3102609749186496</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N9">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O9">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P9">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q9">
-        <v>139.1634858277961</v>
+        <v>177.5737293172373</v>
       </c>
       <c r="R9">
-        <v>139.1634858277961</v>
+        <v>1598.163563855136</v>
       </c>
       <c r="S9">
-        <v>0.03201436809521963</v>
+        <v>0.03722788405957085</v>
       </c>
       <c r="T9">
-        <v>0.03201436809521963</v>
+        <v>0.03722788405957085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4744146510436</v>
+        <v>13.70542966666667</v>
       </c>
       <c r="H10">
-        <v>12.4744146510436</v>
+        <v>41.116289</v>
       </c>
       <c r="I10">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="J10">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N10">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O10">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P10">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q10">
-        <v>369.2828282334195</v>
+        <v>430.9816722542489</v>
       </c>
       <c r="R10">
-        <v>369.2828282334195</v>
+        <v>3878.83505028824</v>
       </c>
       <c r="S10">
-        <v>0.0849530056248928</v>
+        <v>0.0903542195581049</v>
       </c>
       <c r="T10">
-        <v>0.0849530056248928</v>
+        <v>0.0903542195581049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4744146510436</v>
+        <v>13.70542966666667</v>
       </c>
       <c r="H11">
-        <v>12.4744146510436</v>
+        <v>41.116289</v>
       </c>
       <c r="I11">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="J11">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N11">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O11">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P11">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q11">
-        <v>717.1869012200781</v>
+        <v>792.1826107767965</v>
       </c>
       <c r="R11">
-        <v>717.1869012200781</v>
+        <v>7129.643496991169</v>
       </c>
       <c r="S11">
-        <v>0.1649878580732093</v>
+        <v>0.1660790844535356</v>
       </c>
       <c r="T11">
-        <v>0.1649878580732093</v>
+        <v>0.1660790844535356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.4744146510436</v>
+        <v>13.70542966666667</v>
       </c>
       <c r="H12">
-        <v>12.4744146510436</v>
+        <v>41.116289</v>
       </c>
       <c r="I12">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="J12">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N12">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O12">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P12">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q12">
-        <v>145.8996443510684</v>
+        <v>165.0395048725645</v>
       </c>
       <c r="R12">
-        <v>145.8996443510684</v>
+        <v>1485.35554385308</v>
       </c>
       <c r="S12">
-        <v>0.03356401207854615</v>
+        <v>0.03460011554788244</v>
       </c>
       <c r="T12">
-        <v>0.03356401207854615</v>
+        <v>0.03460011554788244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.4744146510436</v>
+        <v>13.70542966666667</v>
       </c>
       <c r="H13">
-        <v>12.4744146510436</v>
+        <v>41.116289</v>
       </c>
       <c r="I13">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="J13">
-        <v>0.3146515334347992</v>
+        <v>0.3307156367103167</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N13">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O13">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P13">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q13">
-        <v>135.3916291179439</v>
+        <v>189.2806820760284</v>
       </c>
       <c r="R13">
-        <v>135.3916291179439</v>
+        <v>1703.526138684256</v>
       </c>
       <c r="S13">
-        <v>0.03114665765815097</v>
+        <v>0.03968221715079374</v>
       </c>
       <c r="T13">
-        <v>0.03114665765815097</v>
+        <v>0.03968221715079374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.08815506912744</v>
+        <v>4.518638999999999</v>
       </c>
       <c r="H14">
-        <v>4.08815506912744</v>
+        <v>13.555917</v>
       </c>
       <c r="I14">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="J14">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.6032189536465</v>
+        <v>31.44605333333334</v>
       </c>
       <c r="N14">
-        <v>29.6032189536465</v>
+        <v>94.33816</v>
       </c>
       <c r="O14">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="P14">
-        <v>0.2699907567509008</v>
+        <v>0.273208187120734</v>
       </c>
       <c r="Q14">
-        <v>121.0225496278395</v>
+        <v>142.09336298808</v>
       </c>
       <c r="R14">
-        <v>121.0225496278395</v>
+        <v>1278.84026689272</v>
       </c>
       <c r="S14">
-        <v>0.02784107072743189</v>
+        <v>0.02978951483022814</v>
       </c>
       <c r="T14">
-        <v>0.02784107072743189</v>
+        <v>0.02978951483022814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.08815506912744</v>
+        <v>4.518638999999999</v>
       </c>
       <c r="H15">
-        <v>4.08815506912744</v>
+        <v>13.555917</v>
       </c>
       <c r="I15">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="J15">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.4926296168998</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N15">
-        <v>57.4926296168998</v>
+        <v>173.401921</v>
       </c>
       <c r="O15">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974907</v>
       </c>
       <c r="P15">
-        <v>0.5243510377088226</v>
+        <v>0.5021809252974908</v>
       </c>
       <c r="Q15">
-        <v>235.0387852057953</v>
+        <v>261.1802276351729</v>
       </c>
       <c r="R15">
-        <v>235.0387852057953</v>
+        <v>2350.622048716556</v>
       </c>
       <c r="S15">
-        <v>0.05407034856501593</v>
+        <v>0.05475577536406845</v>
       </c>
       <c r="T15">
-        <v>0.05407034856501593</v>
+        <v>0.05475577536406846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.08815506912744</v>
+        <v>4.518638999999999</v>
       </c>
       <c r="H16">
-        <v>4.08815506912744</v>
+        <v>13.555917</v>
       </c>
       <c r="I16">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="J16">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.6959110653631</v>
+        <v>12.04190666666667</v>
       </c>
       <c r="N16">
-        <v>11.6959110653631</v>
+        <v>36.12572</v>
       </c>
       <c r="O16">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="P16">
-        <v>0.1066704227122451</v>
+        <v>0.1046219522368387</v>
       </c>
       <c r="Q16">
-        <v>47.81469810992788</v>
+        <v>54.41302909836</v>
       </c>
       <c r="R16">
-        <v>47.81469810992788</v>
+        <v>489.71726188524</v>
       </c>
       <c r="S16">
-        <v>0.01099970539360609</v>
+        <v>0.01140755418266234</v>
       </c>
       <c r="T16">
-        <v>0.01099970539360609</v>
+        <v>0.01140755418266234</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.08815506912744</v>
+        <v>4.518638999999999</v>
       </c>
       <c r="H17">
-        <v>4.08815506912744</v>
+        <v>13.555917</v>
       </c>
       <c r="I17">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="J17">
-        <v>0.1031186069570472</v>
+        <v>0.10903595219518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.8535456697054</v>
+        <v>13.81063466666667</v>
       </c>
       <c r="N17">
-        <v>10.8535456697054</v>
+        <v>41.431904</v>
       </c>
       <c r="O17">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="P17">
-        <v>0.09898778282803142</v>
+        <v>0.1199889353449366</v>
       </c>
       <c r="Q17">
-        <v>44.37097774761231</v>
+        <v>62.40527241955198</v>
       </c>
       <c r="R17">
-        <v>44.37097774761231</v>
+        <v>561.6474517759679</v>
       </c>
       <c r="S17">
-        <v>0.01020748227099332</v>
+        <v>0.01308310781822105</v>
       </c>
       <c r="T17">
-        <v>0.01020748227099332</v>
+        <v>0.01308310781822105</v>
       </c>
     </row>
   </sheetData>
